--- a/raw_data/20200818_saline/20200818_Sensor2_Test_20.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_20.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7919CB-7433-440A-B2D4-A9DBFD4BD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>17473.320053</v>
+        <v>17473.320052999999</v>
       </c>
       <c r="B2" s="1">
-        <v>4.853700</v>
+        <v>4.8536999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.550000</v>
+        <v>1240.55</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.931000</v>
+        <v>-305.93099999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>17483.396775</v>
+        <v>17483.396775000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.856499</v>
+        <v>4.8564990000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.590000</v>
+        <v>1265.5899999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.631000</v>
+        <v>-263.63099999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>17493.533526</v>
+        <v>17493.533525999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.859315</v>
+        <v>4.8593149999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1299.200000</v>
+        <v>1299.2</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.199000</v>
+        <v>-201.19900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>17504.022934</v>
+        <v>17504.022934000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.862229</v>
+        <v>4.8622290000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1310.440000</v>
+        <v>1310.44</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.338000</v>
+        <v>-183.33799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>17514.332254</v>
+        <v>17514.332254000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.865092</v>
+        <v>4.8650919999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1323.270000</v>
+        <v>1323.27</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.062000</v>
+        <v>-170.06200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>17524.764608</v>
+        <v>17524.764608000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.867990</v>
+        <v>4.8679899999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1339.950000</v>
+        <v>1339.95</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.184000</v>
+        <v>-168.184</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>17535.001043</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.870834</v>
+        <v>4.8708340000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1352.790000</v>
+        <v>1352.79</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.255000</v>
+        <v>-178.255</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>17545.456245</v>
+        <v>17545.456245000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.873738</v>
+        <v>4.8737380000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1373.250000</v>
+        <v>1373.25</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.522000</v>
+        <v>-208.52199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>17556.031943</v>
+        <v>17556.031943000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.876676</v>
+        <v>4.8766759999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1394.830000</v>
+        <v>1394.83</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.744000</v>
+        <v>-252.744</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>17567.316392</v>
+        <v>17567.316392000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.879810</v>
+        <v>4.87981</v>
       </c>
       <c r="AV2" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.244000</v>
+        <v>-313.24400000000003</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>17578.429758</v>
+        <v>17578.429757999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.882897</v>
+        <v>4.8828969999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1438.700000</v>
+        <v>1438.7</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.633000</v>
+        <v>-365.63299999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>17589.412172</v>
@@ -646,407 +1062,407 @@
         <v>4.885948</v>
       </c>
       <c r="BF2" s="1">
-        <v>1524.340000</v>
+        <v>1524.34</v>
       </c>
       <c r="BG2" s="1">
-        <v>-615.232000</v>
+        <v>-615.23199999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>17600.430300</v>
+        <v>17600.4303</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.889008</v>
+        <v>4.8890079999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1679.430000</v>
+        <v>1679.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1062.370000</v>
+        <v>-1062.3699999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>17611.454381</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.892071</v>
+        <v>4.8920709999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1975.860000</v>
+        <v>1975.86</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1836.340000</v>
+        <v>-1836.34</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>17621.794976</v>
+        <v>17621.794976000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.894943</v>
+        <v>4.8949429999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>2365.310000</v>
+        <v>2365.31</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2727.300000</v>
+        <v>-2727.3</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>17632.613715</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.897948</v>
+        <v>4.8979480000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.910000</v>
+        <v>2853.91</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3704.430000</v>
+        <v>-3704.43</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>17643.629859</v>
+        <v>17643.629859000001</v>
       </c>
       <c r="CD2" s="1">
         <v>4.901008</v>
       </c>
       <c r="CE2" s="1">
-        <v>4297.350000</v>
+        <v>4297.3500000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6055.210000</v>
+        <v>-6055.21</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>17473.704452</v>
+        <v>17473.704452000002</v>
       </c>
       <c r="B3" s="1">
-        <v>4.853807</v>
+        <v>4.8538069999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.120000</v>
+        <v>1240.1199999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.022000</v>
+        <v>-306.02199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>17483.804982</v>
+        <v>17483.804982000001</v>
       </c>
       <c r="G3" s="1">
-        <v>4.856612</v>
+        <v>4.8566120000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1264.580000</v>
+        <v>1264.58</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.386000</v>
+        <v>-264.38600000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>17493.992811</v>
       </c>
       <c r="L3" s="1">
-        <v>4.859442</v>
+        <v>4.8594419999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>1299.540000</v>
+        <v>1299.54</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.182000</v>
+        <v>-201.18199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>17504.132557</v>
+        <v>17504.132557000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.862259</v>
+        <v>4.8622589999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.362000</v>
+        <v>-183.36199999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>17514.702765</v>
+        <v>17514.702765000002</v>
       </c>
       <c r="V3" s="1">
-        <v>4.865195</v>
+        <v>4.8651949999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1323.250000</v>
+        <v>1323.25</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.974000</v>
+        <v>-169.97399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>17525.131153</v>
+        <v>17525.131152999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.868092</v>
+        <v>4.8680919999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1339.910000</v>
+        <v>1339.91</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.348000</v>
+        <v>-168.34800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>17535.380978</v>
+        <v>17535.380978000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.870939</v>
+        <v>4.8709389999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1352.790000</v>
+        <v>1352.79</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.194000</v>
+        <v>-178.19399999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>17546.191285</v>
+        <v>17546.191285000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.873942</v>
+        <v>4.8739420000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.526000</v>
+        <v>-208.52600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>17556.779916</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.876883</v>
+        <v>4.8768830000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1394.830000</v>
+        <v>1394.83</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.740000</v>
+        <v>-252.74</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>17567.711736</v>
+        <v>17567.711736000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.879920</v>
+        <v>4.8799200000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.192000</v>
+        <v>-313.19200000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>17578.830058</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.883008</v>
+        <v>4.8830080000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1438.680000</v>
+        <v>1438.68</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.623000</v>
+        <v>-365.62299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>17589.777761</v>
+        <v>17589.777761000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.886049</v>
+        <v>4.8860489999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1524.300000</v>
+        <v>1524.3</v>
       </c>
       <c r="BG3" s="1">
-        <v>-615.208000</v>
+        <v>-615.20799999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>17601.155979</v>
+        <v>17601.155978999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.889210</v>
+        <v>4.8892100000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1679.430000</v>
+        <v>1679.43</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1062.320000</v>
+        <v>-1062.32</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>17611.563005</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.892101</v>
+        <v>4.8921010000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1975.840000</v>
+        <v>1975.84</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1836.340000</v>
+        <v>-1836.34</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>17621.971089</v>
+        <v>17621.971088999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.894992</v>
+        <v>4.8949920000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.630000</v>
+        <v>2365.63</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2727.490000</v>
+        <v>-2727.49</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>17633.086930</v>
+        <v>17633.086930000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.898080</v>
+        <v>4.8980800000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.610000</v>
+        <v>2853.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3703.270000</v>
+        <v>-3703.27</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>17644.189875</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.901164</v>
+        <v>4.9011639999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.110000</v>
+        <v>4288.1099999999997</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6037.200000</v>
+        <v>-6037.2</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>17474.119108</v>
+        <v>17474.119107999999</v>
       </c>
       <c r="B4" s="1">
-        <v>4.853922</v>
+        <v>4.8539219999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.150000</v>
+        <v>1240.1500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.062000</v>
+        <v>-306.06200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>17484.126174</v>
+        <v>17484.126174000001</v>
       </c>
       <c r="G4" s="1">
-        <v>4.856702</v>
+        <v>4.8567020000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>1264.440000</v>
+        <v>1264.44</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.946000</v>
+        <v>-263.94600000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>17494.290445</v>
+        <v>17494.290444999999</v>
       </c>
       <c r="L4" s="1">
-        <v>4.859525</v>
+        <v>4.8595249999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1299.220000</v>
+        <v>1299.22</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.104000</v>
+        <v>-201.10400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>17504.474389</v>
+        <v>17504.474388999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.862354</v>
+        <v>4.8623539999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.312000</v>
+        <v>-183.31200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>17515.047981</v>
@@ -1055,1011 +1471,1011 @@
         <v>4.865291</v>
       </c>
       <c r="W4" s="1">
-        <v>1323.190000</v>
+        <v>1323.19</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.136000</v>
+        <v>-170.136</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>17525.480863</v>
+        <v>17525.480863000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.868189</v>
+        <v>4.8681890000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1340.160000</v>
+        <v>1340.16</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.204000</v>
+        <v>-168.20400000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>17536.069921</v>
+        <v>17536.069920999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.871131</v>
+        <v>4.8711310000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1352.830000</v>
+        <v>1352.83</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.382000</v>
+        <v>-178.38200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>17546.527572</v>
+        <v>17546.527571999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.874035</v>
+        <v>4.8740350000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.515000</v>
+        <v>-208.51499999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>17557.140007</v>
+        <v>17557.140007000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.876983</v>
+        <v>4.8769830000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1394.810000</v>
+        <v>1394.81</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.729000</v>
+        <v>-252.72900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>17568.079272</v>
+        <v>17568.079271999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.880022</v>
+        <v>4.8800220000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.171000</v>
+        <v>-313.17099999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>17579.509080</v>
+        <v>17579.50908</v>
       </c>
       <c r="AZ4" s="1">
         <v>4.883197</v>
       </c>
       <c r="BA4" s="1">
-        <v>1438.700000</v>
+        <v>1438.7</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.601000</v>
+        <v>-365.601</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>17590.450793</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.886236</v>
+        <v>4.8862360000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1524.270000</v>
+        <v>1524.27</v>
       </c>
       <c r="BG4" s="1">
-        <v>-615.175000</v>
+        <v>-615.17499999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>17601.598379</v>
+        <v>17601.598378999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.889333</v>
+        <v>4.8893329999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1679.300000</v>
+        <v>1679.3</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1062.300000</v>
+        <v>-1062.3</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>17611.986093</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.892218</v>
+        <v>4.8922179999999997</v>
       </c>
       <c r="BP4" s="1">
-        <v>1975.770000</v>
+        <v>1975.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1836.650000</v>
+        <v>-1836.65</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>17622.381780</v>
+        <v>17622.38178</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.895106</v>
+        <v>4.8951060000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2365.640000</v>
+        <v>2365.64</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2727.120000</v>
+        <v>-2727.12</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>17633.517426</v>
+        <v>17633.517425999999</v>
       </c>
       <c r="BY4" s="1">
         <v>4.898199</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.170000</v>
+        <v>2853.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3703.930000</v>
+        <v>-3703.93</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>17644.731473</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.901314</v>
+        <v>4.9013140000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>4280.350000</v>
+        <v>4280.3500000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6055.180000</v>
+        <v>-6055.18</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>17474.383971</v>
+        <v>17474.383970999999</v>
       </c>
       <c r="B5" s="1">
-        <v>4.853996</v>
+        <v>4.8539960000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.782000</v>
+        <v>-305.78199999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>17484.468662</v>
+        <v>17484.468661999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4.856797</v>
+        <v>4.8567970000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.390000</v>
+        <v>-264.39</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>17494.639592</v>
       </c>
       <c r="L5" s="1">
-        <v>4.859622</v>
+        <v>4.8596219999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1298.960000</v>
+        <v>1298.96</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.537000</v>
+        <v>-201.53700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>17504.824244</v>
+        <v>17504.824243999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.862451</v>
+        <v>4.8624510000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1310.480000</v>
+        <v>1310.48</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.458000</v>
+        <v>-183.458</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>17515.731966</v>
+        <v>17515.731965999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.865481</v>
+        <v>4.8654809999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1323.280000</v>
+        <v>1323.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.973000</v>
+        <v>-169.97300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>17526.179695</v>
+        <v>17526.179694999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.868383</v>
+        <v>4.8683829999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1340.070000</v>
+        <v>1340.07</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.256000</v>
+        <v>-168.256</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>17536.412162</v>
+        <v>17536.412162000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.871226</v>
+        <v>4.8712260000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1352.890000</v>
+        <v>1352.89</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.226000</v>
+        <v>-178.226</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>17546.889156</v>
+        <v>17546.889156000001</v>
       </c>
       <c r="AK5" s="1">
         <v>4.874136</v>
       </c>
       <c r="AL5" s="1">
-        <v>1373.200000</v>
+        <v>1373.2</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.507000</v>
+        <v>-208.50700000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>17557.503047</v>
+        <v>17557.503046999998</v>
       </c>
       <c r="AP5" s="1">
         <v>4.877084</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1394.790000</v>
+        <v>1394.79</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.734000</v>
+        <v>-252.73400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>17568.752806</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.880209</v>
+        <v>4.8802089999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1419.320000</v>
+        <v>1419.32</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.174000</v>
+        <v>-313.17399999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>17579.906839</v>
+        <v>17579.906838999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.883307</v>
+        <v>4.8833070000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1438.690000</v>
+        <v>1438.69</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.601000</v>
+        <v>-365.601</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>17590.888761</v>
+        <v>17590.888760999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.886358</v>
+        <v>4.8863580000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1524.300000</v>
+        <v>1524.3</v>
       </c>
       <c r="BG5" s="1">
-        <v>-615.214000</v>
+        <v>-615.21400000000006</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>17601.971370</v>
+        <v>17601.971369999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.889436</v>
+        <v>4.8894359999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1679.440000</v>
+        <v>1679.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1062.370000</v>
+        <v>-1062.3699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>17612.383884</v>
+        <v>17612.383883999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.892329</v>
+        <v>4.8923290000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1975.580000</v>
+        <v>1975.58</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1836.450000</v>
+        <v>-1836.45</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>17622.801359</v>
+        <v>17622.801359000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.895223</v>
+        <v>4.8952229999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.300000</v>
+        <v>2366.3000000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2727.700000</v>
+        <v>-2727.7</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>17633.940017</v>
+        <v>17633.940017000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.898317</v>
+        <v>4.8983169999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.630000</v>
+        <v>2853.63</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3704.080000</v>
+        <v>-3704.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>17645.268642</v>
+        <v>17645.268641999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.901464</v>
+        <v>4.9014639999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>4296.630000</v>
+        <v>4296.63</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6046.470000</v>
+        <v>-6046.47</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>17474.725218</v>
       </c>
       <c r="B6" s="1">
-        <v>4.854090</v>
+        <v>4.8540900000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.050000</v>
+        <v>1240.05</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.932000</v>
+        <v>-305.93200000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>17484.812359</v>
       </c>
       <c r="G6" s="1">
-        <v>4.856892</v>
+        <v>4.8568920000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1264.230000</v>
+        <v>1264.23</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.680000</v>
+        <v>-263.68</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>17495.329031</v>
+        <v>17495.329031000001</v>
       </c>
       <c r="L6" s="1">
-        <v>4.859814</v>
+        <v>4.8598140000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1298.980000</v>
+        <v>1298.98</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.225000</v>
+        <v>-201.22499999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>17505.520825</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.862645</v>
+        <v>4.8626449999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1310.460000</v>
+        <v>1310.46</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.418000</v>
+        <v>-183.41800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>17516.076188</v>
+        <v>17516.076187999999</v>
       </c>
       <c r="V6" s="1">
         <v>4.865577</v>
       </c>
       <c r="W6" s="1">
-        <v>1323.230000</v>
+        <v>1323.23</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.046000</v>
+        <v>-170.04599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>17526.525407</v>
+        <v>17526.525407000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.868479</v>
+        <v>4.8684789999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1339.870000</v>
+        <v>1339.87</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.087000</v>
+        <v>-168.08699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>17536.753440</v>
+        <v>17536.75344</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.871320</v>
+        <v>4.8713199999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1352.740000</v>
+        <v>1352.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.193000</v>
+        <v>-178.19300000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>17547.544402</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.874318</v>
+        <v>4.8743179999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1373.230000</v>
+        <v>1373.23</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.507000</v>
+        <v>-208.50700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>17558.155817</v>
+        <v>17558.155816999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.877266</v>
+        <v>4.8772659999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1394.810000</v>
+        <v>1394.81</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.752000</v>
+        <v>-252.75200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>17569.170437</v>
+        <v>17569.170437000001</v>
       </c>
       <c r="AU6" s="1">
         <v>4.880325</v>
       </c>
       <c r="AV6" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.213000</v>
+        <v>-313.21300000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>17580.288759</v>
+        <v>17580.288758999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.883414</v>
+        <v>4.8834140000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.608000</v>
+        <v>-365.608</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>17591.247865</v>
+        <v>17591.247865000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.886458</v>
+        <v>4.8864580000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1524.260000</v>
+        <v>1524.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-615.238000</v>
+        <v>-615.23800000000006</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>17602.348338</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.889541</v>
+        <v>4.8895410000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1679.370000</v>
+        <v>1679.37</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1062.340000</v>
+        <v>-1062.3399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>17612.801517</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.892445</v>
+        <v>4.8924450000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1975.430000</v>
+        <v>1975.43</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1836.520000</v>
+        <v>-1836.52</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>17623.221471</v>
+        <v>17623.221471000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.895339</v>
+        <v>4.8953389999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.710000</v>
+        <v>2366.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2727.160000</v>
+        <v>-2727.16</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>17634.361119</v>
+        <v>17634.361119000001</v>
       </c>
       <c r="BY6" s="1">
         <v>4.898434</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.070000</v>
+        <v>2853.07</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3704.020000</v>
+        <v>-3704.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>17645.809808</v>
+        <v>17645.809808000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.901614</v>
+        <v>4.9016140000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>4276.480000</v>
+        <v>4276.4799999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6040.170000</v>
+        <v>-6040.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>17475.067458</v>
+        <v>17475.067458000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.854185</v>
+        <v>4.8541850000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1239.730000</v>
+        <v>1239.73</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.296000</v>
+        <v>-306.29599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>17485.504772</v>
       </c>
       <c r="G7" s="1">
-        <v>4.857085</v>
+        <v>4.8570849999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1264.460000</v>
+        <v>1264.46</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.103000</v>
+        <v>-264.10300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>17495.675239</v>
       </c>
       <c r="L7" s="1">
-        <v>4.859910</v>
+        <v>4.8599100000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1299.110000</v>
+        <v>1299.1099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.553000</v>
+        <v>-201.553</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>17505.856617</v>
+        <v>17505.856617000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.862738</v>
+        <v>4.8627380000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1310.390000</v>
+        <v>1310.3900000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.323000</v>
+        <v>-183.32300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>17516.419915</v>
+        <v>17516.419914999999</v>
       </c>
       <c r="V7" s="1">
         <v>4.865672</v>
       </c>
       <c r="W7" s="1">
-        <v>1323.120000</v>
+        <v>1323.12</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.004000</v>
+        <v>-170.00399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>17526.898435</v>
+        <v>17526.898434999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.868583</v>
+        <v>4.8685830000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1340.040000</v>
+        <v>1340.04</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.417000</v>
+        <v>-168.417</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>17537.411601</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.871503</v>
+        <v>4.8715029999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>1352.850000</v>
+        <v>1352.85</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.188000</v>
+        <v>-178.18799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17547.933767</v>
+        <v>17547.933766999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.874426</v>
+        <v>4.8744259999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>1373.230000</v>
+        <v>1373.23</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.516000</v>
+        <v>-208.51599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>17558.583332</v>
+        <v>17558.583331999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.877384</v>
+        <v>4.8773840000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1394.800000</v>
+        <v>1394.8</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.771000</v>
+        <v>-252.77099999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>17569.565255</v>
+        <v>17569.565255000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.880435</v>
+        <v>4.8804350000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.158000</v>
+        <v>-313.15800000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>17580.637942</v>
+        <v>17580.637942000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.883511</v>
+        <v>4.8835110000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.606000</v>
+        <v>-365.60599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>17591.610936</v>
+        <v>17591.610936000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.886559</v>
+        <v>4.8865590000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1524.290000</v>
+        <v>1524.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-615.213000</v>
+        <v>-615.21299999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>17602.764969</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.889657</v>
+        <v>4.8896569999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1679.360000</v>
+        <v>1679.36</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1062.250000</v>
+        <v>-1062.25</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>17613.201787</v>
+        <v>17613.201787000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.892556</v>
+        <v>4.8925559999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1975.410000</v>
+        <v>1975.41</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1836.620000</v>
+        <v>-1836.62</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>17623.634142</v>
+        <v>17623.634141999999</v>
       </c>
       <c r="BT7" s="1">
         <v>4.895454</v>
       </c>
       <c r="BU7" s="1">
-        <v>2367.030000</v>
+        <v>2367.0300000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2727.840000</v>
+        <v>-2727.84</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>17634.816479</v>
+        <v>17634.816479000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.898560</v>
+        <v>4.8985599999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.670000</v>
+        <v>2853.67</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3703.480000</v>
+        <v>-3703.48</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>17646.351903</v>
+        <v>17646.351902999999</v>
       </c>
       <c r="CD7" s="1">
         <v>4.901764</v>
       </c>
       <c r="CE7" s="1">
-        <v>4296.050000</v>
+        <v>4296.05</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6055.170000</v>
+        <v>-6055.17</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>17475.755905</v>
+        <v>17475.755905000002</v>
       </c>
       <c r="B8" s="1">
-        <v>4.854377</v>
+        <v>4.8543770000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>1240.010000</v>
+        <v>1240.01</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.270000</v>
+        <v>-306.27</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>17485.844533</v>
       </c>
       <c r="G8" s="1">
-        <v>4.857179</v>
+        <v>4.8571790000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.768000</v>
+        <v>-263.76799999999997</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>17496.007559</v>
+        <v>17496.007559000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.860002</v>
+        <v>4.8600019999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1299.250000</v>
+        <v>1299.25</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.350000</v>
+        <v>-201.35</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>17506.218234</v>
@@ -2068,1540 +2484,1540 @@
         <v>4.862838</v>
       </c>
       <c r="R8" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.303000</v>
+        <v>-183.303</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>17517.071691</v>
+        <v>17517.071691000001</v>
       </c>
       <c r="V8" s="1">
-        <v>4.865853</v>
+        <v>4.8658530000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1323.220000</v>
+        <v>1323.22</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.994000</v>
+        <v>-169.994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>17527.334418</v>
+        <v>17527.334417999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.868704</v>
+        <v>4.8687040000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1340.090000</v>
+        <v>1340.09</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.148000</v>
+        <v>-168.148</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>17537.786079</v>
+        <v>17537.786079000001</v>
       </c>
       <c r="AF8" s="1">
         <v>4.871607</v>
       </c>
       <c r="AG8" s="1">
-        <v>1352.740000</v>
+        <v>1352.74</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.223000</v>
+        <v>-178.22300000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>17548.280929</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.874522</v>
+        <v>4.8745219999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1373.200000</v>
+        <v>1373.2</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.471000</v>
+        <v>-208.471</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>17558.961779</v>
+        <v>17558.961779000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.877489</v>
+        <v>4.8774889999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1394.790000</v>
+        <v>1394.79</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.750000</v>
+        <v>-252.75</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>17569.931301</v>
+        <v>17569.931301000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.880536</v>
+        <v>4.8805360000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1419.320000</v>
+        <v>1419.32</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.185000</v>
+        <v>-313.185</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>17581.061526</v>
+        <v>17581.061526000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.883628</v>
+        <v>4.8836279999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1438.690000</v>
+        <v>1438.69</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.593000</v>
+        <v>-365.59300000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>17592.031047</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.886675</v>
+        <v>4.8866750000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1524.260000</v>
+        <v>1524.26</v>
       </c>
       <c r="BG8" s="1">
-        <v>-615.223000</v>
+        <v>-615.22299999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>17603.123608</v>
+        <v>17603.123608000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.889757</v>
+        <v>4.8897570000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1679.330000</v>
+        <v>1679.33</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1062.270000</v>
+        <v>-1062.27</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>17613.620944</v>
+        <v>17613.620943999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.892672</v>
+        <v>4.8926720000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1975.570000</v>
+        <v>1975.57</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1836.510000</v>
+        <v>-1836.51</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>17624.047838</v>
+        <v>17624.047837999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.895569</v>
+        <v>4.8955690000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2367.560000</v>
+        <v>2367.56</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2727.790000</v>
+        <v>-2727.79</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>17635.234080</v>
+        <v>17635.234079999998</v>
       </c>
       <c r="BY8" s="1">
         <v>4.898676</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.780000</v>
+        <v>2853.78</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3703.770000</v>
+        <v>-3703.77</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>17646.890064</v>
+        <v>17646.890063999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.901914</v>
+        <v>4.9019139999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>4287.340000</v>
+        <v>4287.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6037.380000</v>
+        <v>-6037.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>17476.097680</v>
+        <v>17476.097679999999</v>
       </c>
       <c r="B9" s="1">
-        <v>4.854472</v>
+        <v>4.8544720000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.308000</v>
+        <v>-306.30799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>17486.191235</v>
+        <v>17486.191234999998</v>
       </c>
       <c r="G9" s="1">
-        <v>4.857275</v>
+        <v>4.8572749999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1264.250000</v>
+        <v>1264.25</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.207000</v>
+        <v>-264.20699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>17496.677681</v>
+        <v>17496.677681000001</v>
       </c>
       <c r="L9" s="1">
         <v>4.860188</v>
       </c>
       <c r="M9" s="1">
-        <v>1299.340000</v>
+        <v>1299.3399999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.019000</v>
+        <v>-201.01900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>17506.867496</v>
+        <v>17506.867495999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.863019</v>
+        <v>4.8630190000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.323000</v>
+        <v>-183.32300000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>17517.451594</v>
+        <v>17517.451593999998</v>
       </c>
       <c r="V9" s="1">
-        <v>4.865959</v>
+        <v>4.8659590000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1323.160000</v>
+        <v>1323.16</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.016000</v>
+        <v>-170.01599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>17527.600732</v>
+        <v>17527.600731999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.868778</v>
+        <v>4.8687779999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1340.150000</v>
+        <v>1340.15</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.132000</v>
+        <v>-168.13200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>17538.129844</v>
+        <v>17538.129843999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.871703</v>
+        <v>4.8717030000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1352.750000</v>
+        <v>1352.75</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.107000</v>
+        <v>-178.107</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>17548.631601</v>
+        <v>17548.631601000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.874620</v>
+        <v>4.8746200000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1373.230000</v>
+        <v>1373.23</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.500000</v>
+        <v>-208.5</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>17559.328323</v>
+        <v>17559.328323000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.877591</v>
+        <v>4.8775909999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1394.840000</v>
+        <v>1394.84</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.736000</v>
+        <v>-252.73599999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>17570.348965</v>
+        <v>17570.348965000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.880652</v>
+        <v>4.8806520000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>1419.300000</v>
+        <v>1419.3</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.174000</v>
+        <v>-313.17399999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>17581.367558</v>
+        <v>17581.367558000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.883713</v>
+        <v>4.8837130000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.614000</v>
+        <v>-365.61399999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>17592.337079</v>
+        <v>17592.337079000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.886760</v>
+        <v>4.8867599999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1524.260000</v>
+        <v>1524.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-615.227000</v>
+        <v>-615.22699999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>17603.499544</v>
+        <v>17603.499543999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.889861</v>
+        <v>4.8898609999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1679.360000</v>
+        <v>1679.36</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1062.340000</v>
+        <v>-1062.3399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>17614.017243</v>
+        <v>17614.017242999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.892783</v>
+        <v>4.8927829999999997</v>
       </c>
       <c r="BP9" s="1">
-        <v>1975.520000</v>
+        <v>1975.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1836.470000</v>
+        <v>-1836.47</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>17624.460972</v>
+        <v>17624.460972000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.895684</v>
+        <v>4.8956840000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2367.440000</v>
+        <v>2367.44</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2728.300000</v>
+        <v>-2728.3</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>17635.679198</v>
+        <v>17635.679198000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.898800</v>
+        <v>4.8987999999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.570000</v>
+        <v>2852.57</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3703.820000</v>
+        <v>-3703.82</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>17647.430207</v>
+        <v>17647.430207000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.902064</v>
+        <v>4.9020640000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4278.730000</v>
+        <v>4278.7299999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6053.520000</v>
+        <v>-6053.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>17476.442864</v>
+        <v>17476.442864000001</v>
       </c>
       <c r="B10" s="1">
-        <v>4.854567</v>
+        <v>4.8545670000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.160000</v>
+        <v>1240.1600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.325000</v>
+        <v>-306.32499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>17486.834050</v>
+        <v>17486.834050000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4.857454</v>
+        <v>4.8574539999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.814000</v>
+        <v>-264.81400000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>17497.057589</v>
       </c>
       <c r="L10" s="1">
-        <v>4.860294</v>
+        <v>4.8602939999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1298.960000</v>
+        <v>1298.96</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.799000</v>
+        <v>-201.79900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>17507.263309</v>
+        <v>17507.263309000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.863129</v>
+        <v>4.8631289999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.400000</v>
+        <v>-183.4</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>17517.797802</v>
+        <v>17517.797802000001</v>
       </c>
       <c r="V10" s="1">
-        <v>4.866055</v>
+        <v>4.8660550000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1323.130000</v>
+        <v>1323.13</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.969000</v>
+        <v>-169.96899999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>17527.953425</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.868876</v>
+        <v>4.8688760000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1340.210000</v>
+        <v>1340.21</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.994000</v>
+        <v>-167.994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>17538.477999</v>
+        <v>17538.477998999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.871799</v>
+        <v>4.8717990000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1352.740000</v>
+        <v>1352.74</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.204000</v>
+        <v>-178.20400000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>17549.058688</v>
+        <v>17549.058688000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.874739</v>
+        <v>4.8747389999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1373.190000</v>
+        <v>1373.19</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.495000</v>
+        <v>-208.495</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>17559.752898</v>
+        <v>17559.752897999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.877709</v>
+        <v>4.8777090000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1394.790000</v>
+        <v>1394.79</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.745000</v>
+        <v>-252.745</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>17570.658963</v>
+        <v>17570.658963000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.880739</v>
+        <v>4.8807390000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1419.350000</v>
+        <v>1419.35</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.153000</v>
+        <v>-313.15300000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>17581.723717</v>
+        <v>17581.723717000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.883812</v>
+        <v>4.8838119999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1438.660000</v>
+        <v>1438.66</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.574000</v>
+        <v>-365.57400000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>17592.692744</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.886859</v>
+        <v>4.8868590000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1524.280000</v>
+        <v>1524.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-615.232000</v>
+        <v>-615.23199999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>17603.876040</v>
+        <v>17603.876039999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.889966</v>
+        <v>4.8899660000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1679.360000</v>
+        <v>1679.36</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1062.290000</v>
+        <v>-1062.29</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>17614.437355</v>
+        <v>17614.437354999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.892899</v>
+        <v>4.8928989999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1975.290000</v>
+        <v>1975.29</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1836.400000</v>
+        <v>-1836.4</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>17624.877150</v>
+        <v>17624.87715</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.895799</v>
+        <v>4.8957990000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.950000</v>
+        <v>2367.9499999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2728.350000</v>
+        <v>-2728.35</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>17636.100589</v>
+        <v>17636.100589000001</v>
       </c>
       <c r="BY10" s="1">
         <v>4.898917</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.230000</v>
+        <v>2853.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3704.390000</v>
+        <v>-3704.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>17647.971837</v>
+        <v>17647.971837000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.902214</v>
+        <v>4.9022139999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4296.000000</v>
+        <v>4296</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6046.570000</v>
+        <v>-6046.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>17477.100561</v>
+        <v>17477.100560999999</v>
       </c>
       <c r="B11" s="1">
-        <v>4.854750</v>
+        <v>4.8547500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.020000</v>
+        <v>1240.02</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.814000</v>
+        <v>-305.81400000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>17487.224898</v>
       </c>
       <c r="G11" s="1">
-        <v>4.857562</v>
+        <v>4.8575619999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.670000</v>
+        <v>1265.67</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.638000</v>
+        <v>-263.63799999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>17497.399333</v>
+        <v>17497.399333000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.860389</v>
+        <v>4.8603889999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.215000</v>
+        <v>-201.215</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>17507.611000</v>
+        <v>17507.611000000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.863225</v>
+        <v>4.8632249999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1310.520000</v>
+        <v>1310.52</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.402000</v>
+        <v>-183.40199999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>17518.139709</v>
+        <v>17518.139708999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.866150</v>
+        <v>4.8661500000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1323.090000</v>
+        <v>1323.09</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.049000</v>
+        <v>-170.04900000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>17528.374988</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.868993</v>
+        <v>4.8689929999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1339.960000</v>
+        <v>1339.96</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.192000</v>
+        <v>-168.19200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>17538.904570</v>
+        <v>17538.904569999999</v>
       </c>
       <c r="AF11" s="1">
         <v>4.871918</v>
       </c>
       <c r="AG11" s="1">
-        <v>1352.820000</v>
+        <v>1352.82</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.157000</v>
+        <v>-178.15700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>17549.327515</v>
+        <v>17549.327515000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.874813</v>
+        <v>4.8748129999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.542000</v>
+        <v>-208.542</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>17560.046033</v>
+        <v>17560.046032999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.877791</v>
+        <v>4.8777910000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1394.800000</v>
+        <v>1394.8</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.741000</v>
+        <v>-252.74100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>17571.024484</v>
+        <v>17571.024484000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.880840</v>
+        <v>4.8808400000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1419.300000</v>
+        <v>1419.3</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>17582.085764</v>
+        <v>17582.085763999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.883913</v>
+        <v>4.8839129999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.618000</v>
+        <v>-365.61799999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>17593.487798</v>
+        <v>17593.487797999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.887080</v>
+        <v>4.8870800000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1524.260000</v>
+        <v>1524.26</v>
       </c>
       <c r="BG11" s="1">
-        <v>-615.213000</v>
+        <v>-615.21299999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>17604.647287</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.890180</v>
+        <v>4.89018</v>
       </c>
       <c r="BK11" s="1">
-        <v>1679.370000</v>
+        <v>1679.37</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1062.230000</v>
+        <v>-1062.23</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>17614.833129</v>
+        <v>17614.833128999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.893009</v>
+        <v>4.8930090000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1975.490000</v>
+        <v>1975.49</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1836.550000</v>
+        <v>-1836.55</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>17625.316109</v>
+        <v>17625.316108999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.895921</v>
+        <v>4.8959210000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.840000</v>
+        <v>2367.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2729.070000</v>
+        <v>-2729.07</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>17636.525165</v>
+        <v>17636.525164999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.899035</v>
+        <v>4.8990349999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.360000</v>
+        <v>2853.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3704.160000</v>
+        <v>-3704.16</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>17648.817548</v>
+        <v>17648.817547999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.902449</v>
+        <v>4.9024489999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4282.800000</v>
+        <v>4282.8</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6056.050000</v>
+        <v>-6056.05</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>17477.473070</v>
+        <v>17477.47307</v>
       </c>
       <c r="B12" s="1">
-        <v>4.854854</v>
+        <v>4.8548539999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>1239.730000</v>
+        <v>1239.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.880000</v>
+        <v>-305.88</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>17487.570113</v>
+        <v>17487.570113000002</v>
       </c>
       <c r="G12" s="1">
-        <v>4.857658</v>
+        <v>4.8576579999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1264.600000</v>
+        <v>1264.5999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-263.999000</v>
+        <v>-263.99900000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>17497.747555</v>
+        <v>17497.747555000002</v>
       </c>
       <c r="L12" s="1">
-        <v>4.860485</v>
+        <v>4.8604849999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>1299.290000</v>
+        <v>1299.29</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.412000</v>
+        <v>-201.41200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>17507.961142</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.863323</v>
+        <v>4.8633230000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>1310.490000</v>
+        <v>1310.49</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.349000</v>
+        <v>-183.34899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>17518.562144</v>
       </c>
       <c r="V12" s="1">
-        <v>4.866267</v>
+        <v>4.8662669999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>1323.190000</v>
+        <v>1323.19</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.048000</v>
+        <v>-170.048</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>17528.647789</v>
+        <v>17528.647788999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.869069</v>
+        <v>4.8690689999999996</v>
       </c>
       <c r="AB12" s="1">
-        <v>1340.010000</v>
+        <v>1340.01</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.231000</v>
+        <v>-168.23099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>17539.183805</v>
+        <v>17539.183805000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.871996</v>
+        <v>4.8719960000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1352.740000</v>
+        <v>1352.74</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.154000</v>
+        <v>-178.154</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>17549.674192</v>
+        <v>17549.674191999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.874909</v>
+        <v>4.8749089999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>1373.210000</v>
+        <v>1373.21</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.480000</v>
+        <v>-208.48</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>17560.407660</v>
+        <v>17560.407660000001</v>
       </c>
       <c r="AP12" s="1">
         <v>4.877891</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1394.780000</v>
+        <v>1394.78</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.758000</v>
+        <v>-252.75800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>17571.387555</v>
+        <v>17571.387555000001</v>
       </c>
       <c r="AU12" s="1">
         <v>4.880941</v>
       </c>
       <c r="AV12" s="1">
-        <v>1419.340000</v>
+        <v>1419.34</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.156000</v>
+        <v>-313.15600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>17582.794548</v>
+        <v>17582.794548000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.884110</v>
+        <v>4.8841099999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1438.690000</v>
+        <v>1438.69</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.592000</v>
+        <v>-365.59199999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>17593.776501</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.887160</v>
+        <v>4.8871599999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1524.270000</v>
+        <v>1524.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-615.212000</v>
+        <v>-615.21199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>17605.023255</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.890284</v>
+        <v>4.8902840000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1679.370000</v>
+        <v>1679.37</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1062.240000</v>
+        <v>-1062.24</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>17615.257705</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.893127</v>
+        <v>4.8931269999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1975.450000</v>
+        <v>1975.45</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1836.530000</v>
+        <v>-1836.53</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>17625.742635</v>
+        <v>17625.742634999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.896040</v>
+        <v>4.8960400000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.970000</v>
+        <v>2367.9699999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2729.420000</v>
+        <v>-2729.42</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>17637.279133</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.899244</v>
+        <v>4.8992440000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.590000</v>
+        <v>2852.59</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3703.260000</v>
+        <v>-3703.26</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>17649.048653</v>
+        <v>17649.048653000002</v>
       </c>
       <c r="CD12" s="1">
         <v>4.902514</v>
       </c>
       <c r="CE12" s="1">
-        <v>4280.120000</v>
+        <v>4280.12</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6055.770000</v>
+        <v>-6055.77</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>17477.821246</v>
       </c>
       <c r="B13" s="1">
-        <v>4.854950</v>
+        <v>4.8549499999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.040000</v>
+        <v>1240.04</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.189000</v>
+        <v>-306.18900000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>17487.915862</v>
+        <v>17487.915862000002</v>
       </c>
       <c r="G13" s="1">
-        <v>4.857754</v>
+        <v>4.8577539999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1265.440000</v>
+        <v>1265.44</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.447000</v>
+        <v>-263.447</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>17498.162179</v>
+        <v>17498.162178999999</v>
       </c>
       <c r="L13" s="1">
-        <v>4.860601</v>
+        <v>4.8606009999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1298.840000</v>
+        <v>1298.8399999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.559000</v>
+        <v>-201.559</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>17508.387702</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.863441</v>
+        <v>4.8634409999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.302000</v>
+        <v>-183.30199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>17518.835929</v>
+        <v>17518.835929000001</v>
       </c>
       <c r="V13" s="1">
-        <v>4.866343</v>
+        <v>4.8663429999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1323.080000</v>
+        <v>1323.08</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.008000</v>
+        <v>-170.00800000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>17528.997468</v>
+        <v>17528.997468000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.869166</v>
+        <v>4.8691659999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1339.920000</v>
+        <v>1339.92</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.150000</v>
+        <v>-168.15</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>17539.524093</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.872090</v>
+        <v>4.87209</v>
       </c>
       <c r="AG13" s="1">
-        <v>1352.790000</v>
+        <v>1352.79</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.129000</v>
+        <v>-178.12899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>17550.027873</v>
+        <v>17550.027872999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.875008</v>
+        <v>4.8750080000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1373.210000</v>
+        <v>1373.21</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.480000</v>
+        <v>-208.48</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>17561.128304</v>
+        <v>17561.128304000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.878091</v>
+        <v>4.8780910000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1394.830000</v>
+        <v>1394.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.782000</v>
+        <v>-252.78200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>17572.122129</v>
+        <v>17572.122128999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.881145</v>
+        <v>4.8811450000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1419.320000</v>
+        <v>1419.32</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.140000</v>
+        <v>-313.14</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>17583.171507</v>
+        <v>17583.171506999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.884214</v>
+        <v>4.8842140000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1438.690000</v>
+        <v>1438.69</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.594000</v>
+        <v>-365.59399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>17594.138583</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.887261</v>
+        <v>4.8872609999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1524.290000</v>
+        <v>1524.29</v>
       </c>
       <c r="BG13" s="1">
-        <v>-615.163000</v>
+        <v>-615.16300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>17605.398774</v>
+        <v>17605.398774000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.890389</v>
+        <v>4.8903889999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1679.360000</v>
+        <v>1679.36</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1062.220000</v>
+        <v>-1062.22</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>17615.967481</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.893324</v>
+        <v>4.8933239999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1975.550000</v>
+        <v>1975.55</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1836.380000</v>
+        <v>-1836.38</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>17626.459354</v>
+        <v>17626.459353999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.896239</v>
+        <v>4.8962389999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.640000</v>
+        <v>2367.64</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2730.120000</v>
+        <v>-2730.12</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>17637.403616</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.899279</v>
+        <v>4.8992789999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.150000</v>
+        <v>2853.15</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3703.580000</v>
+        <v>-3703.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>17649.569947</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.902658</v>
+        <v>4.9026579999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>4296.440000</v>
+        <v>4296.4399999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6049.080000</v>
+        <v>-6049.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>17478.243342</v>
+        <v>17478.243342000002</v>
       </c>
       <c r="B14" s="1">
-        <v>4.855068</v>
+        <v>4.8550680000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.140000</v>
+        <v>1240.1400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.007000</v>
+        <v>-306.00700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>17488.330480</v>
+        <v>17488.330480000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.857870</v>
+        <v>4.8578700000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1265.500000</v>
+        <v>1265.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.044000</v>
+        <v>-264.04399999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>17498.443442</v>
       </c>
       <c r="L14" s="1">
-        <v>4.860679</v>
+        <v>4.8606790000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.152000</v>
+        <v>-201.15199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>17508.664502</v>
@@ -3610,829 +4026,829 @@
         <v>4.863518</v>
       </c>
       <c r="R14" s="1">
-        <v>1310.550000</v>
+        <v>1310.55</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.246000</v>
+        <v>-183.24600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>17519.177207</v>
+        <v>17519.177207000001</v>
       </c>
       <c r="V14" s="1">
-        <v>4.866438</v>
+        <v>4.8664379999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1323.070000</v>
+        <v>1323.07</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.086000</v>
+        <v>-170.08600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>17529.346651</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.869263</v>
+        <v>4.8692630000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1340.020000</v>
+        <v>1340.02</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.288000</v>
+        <v>-168.28800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>17539.871757</v>
+        <v>17539.871757000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.872187</v>
+        <v>4.8721870000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>1352.810000</v>
+        <v>1352.81</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.263000</v>
+        <v>-178.26300000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>17550.724222</v>
+        <v>17550.724222000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.875201</v>
+        <v>4.8752009999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1373.210000</v>
+        <v>1373.21</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.498000</v>
+        <v>-208.49799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>17561.486416</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.878191</v>
+        <v>4.8781910000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1394.810000</v>
+        <v>1394.81</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.757000</v>
+        <v>-252.75700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>17572.503553</v>
+        <v>17572.503552999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.881251</v>
+        <v>4.8812509999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1419.290000</v>
+        <v>1419.29</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.172000</v>
+        <v>-313.17200000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>17583.562387</v>
+        <v>17583.562387000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.884323</v>
+        <v>4.8843230000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.592000</v>
+        <v>-365.59199999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>17594.812116</v>
+        <v>17594.812116000001</v>
       </c>
       <c r="BE14" s="1">
         <v>4.887448</v>
       </c>
       <c r="BF14" s="1">
-        <v>1524.240000</v>
+        <v>1524.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-615.197000</v>
+        <v>-615.197</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>17606.069845</v>
+        <v>17606.069845000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.890575</v>
+        <v>4.8905750000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1679.350000</v>
+        <v>1679.35</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1062.220000</v>
+        <v>-1062.22</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>17616.076105</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.893354</v>
+        <v>4.8933540000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1975.560000</v>
+        <v>1975.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1836.260000</v>
+        <v>-1836.26</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>17627.021358</v>
+        <v>17627.021358000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.896395</v>
+        <v>4.8963950000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.620000</v>
+        <v>2367.62</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2730.460000</v>
+        <v>-2730.46</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>17637.843035</v>
+        <v>17637.843035000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.899401</v>
+        <v>4.8994010000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.990000</v>
+        <v>2852.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3703.750000</v>
+        <v>-3703.75</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>17650.086283</v>
+        <v>17650.086283000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.902802</v>
+        <v>4.9028020000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>4295.600000</v>
+        <v>4295.6000000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6053.830000</v>
+        <v>-6053.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>17478.527061</v>
+        <v>17478.527061000001</v>
       </c>
       <c r="B15" s="1">
-        <v>4.855146</v>
+        <v>4.8551460000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.141000</v>
+        <v>-306.14100000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>17488.625811</v>
+        <v>17488.625811000002</v>
       </c>
       <c r="G15" s="1">
         <v>4.857952</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.092000</v>
+        <v>-264.09199999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>17498.788141</v>
+        <v>17498.788141000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.860774</v>
+        <v>4.8607740000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1299.190000</v>
+        <v>1299.19</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.074000</v>
+        <v>-201.07400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>17509.014678</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.863615</v>
+        <v>4.8636150000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1310.510000</v>
+        <v>1310.51</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.254000</v>
+        <v>-183.25399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>17519.520407</v>
       </c>
       <c r="V15" s="1">
-        <v>4.866533</v>
+        <v>4.8665330000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>1323.230000</v>
+        <v>1323.23</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.056000</v>
+        <v>-170.05600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>17530.044521</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.869457</v>
+        <v>4.8694569999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>1339.980000</v>
+        <v>1339.98</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.225000</v>
+        <v>-168.22499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>17540.554444</v>
+        <v>17540.554444000001</v>
       </c>
       <c r="AF15" s="1">
         <v>4.872376</v>
       </c>
       <c r="AG15" s="1">
-        <v>1352.930000</v>
+        <v>1352.93</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.208000</v>
+        <v>-178.208</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>17551.069438</v>
+        <v>17551.069437999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.875297</v>
+        <v>4.8752969999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1373.240000</v>
+        <v>1373.24</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.485000</v>
+        <v>-208.48500000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>17561.846512</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.878291</v>
+        <v>4.8782909999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1394.810000</v>
+        <v>1394.81</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.748000</v>
+        <v>-252.74799999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>17572.865634</v>
+        <v>17572.865634000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.881352</v>
+        <v>4.8813519999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1419.280000</v>
+        <v>1419.28</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.150000</v>
+        <v>-313.14999999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>17584.221539</v>
+        <v>17584.221538999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>4.884506</v>
       </c>
       <c r="BA15" s="1">
-        <v>1438.640000</v>
+        <v>1438.64</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.617000</v>
+        <v>-365.61700000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>17595.247107</v>
+        <v>17595.247106999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.887569</v>
+        <v>4.8875690000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1524.230000</v>
+        <v>1524.23</v>
       </c>
       <c r="BG15" s="1">
-        <v>-615.168000</v>
+        <v>-615.16800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>17606.177940</v>
+        <v>17606.177940000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.890605</v>
+        <v>4.8906049999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1679.390000</v>
+        <v>1679.39</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1062.210000</v>
+        <v>-1062.21</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>17616.496711</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.893471</v>
+        <v>4.8934709999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1975.390000</v>
+        <v>1975.39</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1836.430000</v>
+        <v>-1836.43</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>17627.456314</v>
+        <v>17627.456313999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.896516</v>
+        <v>4.8965160000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.930000</v>
+        <v>2366.9299999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2730.850000</v>
+        <v>-2730.85</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>17638.298397</v>
+        <v>17638.298396999999</v>
       </c>
       <c r="BY15" s="1">
         <v>4.899527</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.070000</v>
+        <v>2853.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3703.500000</v>
+        <v>-3703.5</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>17650.640837</v>
+        <v>17650.640836999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.902956</v>
+        <v>4.9029559999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>4279.100000</v>
+        <v>4279.1000000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6053.800000</v>
+        <v>-6053.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>17478.867806</v>
+        <v>17478.867805999998</v>
       </c>
       <c r="B16" s="1">
-        <v>4.855241</v>
+        <v>4.8552410000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1239.860000</v>
+        <v>1239.8599999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.204000</v>
+        <v>-306.20400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>17488.970815</v>
+        <v>17488.970815000001</v>
       </c>
       <c r="G16" s="1">
         <v>4.858047</v>
       </c>
       <c r="H16" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.808000</v>
+        <v>-262.80799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>17499.131890</v>
+        <v>17499.131890000001</v>
       </c>
       <c r="L16" s="1">
-        <v>4.860870</v>
+        <v>4.8608700000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1298.960000</v>
+        <v>1298.96</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.608000</v>
+        <v>-201.608</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>17509.363830</v>
+        <v>17509.363829999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.863712</v>
+        <v>4.8637119999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.365000</v>
+        <v>-183.36500000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>17520.209350</v>
+        <v>17520.209350000001</v>
       </c>
       <c r="V16" s="1">
-        <v>4.866725</v>
+        <v>4.8667249999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1323.240000</v>
+        <v>1323.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.012000</v>
+        <v>-170.012</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>17530.392740</v>
+        <v>17530.392739999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.869554</v>
+        <v>4.8695539999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1340.010000</v>
+        <v>1340.01</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.133000</v>
+        <v>-168.13300000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>17540.898475</v>
+        <v>17540.898475000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.872472</v>
+        <v>4.8724720000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1352.720000</v>
+        <v>1352.72</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.095000</v>
+        <v>-178.095</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>17551.414685</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.875393</v>
+        <v>4.8753929999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1373.180000</v>
+        <v>1373.18</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.538000</v>
+        <v>-208.53800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>17562.522063</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.878478</v>
+        <v>4.8784780000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1394.780000</v>
+        <v>1394.78</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.723000</v>
+        <v>-252.72300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>17573.549615</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.881542</v>
+        <v>4.8815419999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.117000</v>
+        <v>-313.11700000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>17584.643642</v>
+        <v>17584.643641999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.884623</v>
+        <v>4.8846230000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1438.650000</v>
+        <v>1438.65</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.594000</v>
+        <v>-365.59399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>17595.608690</v>
+        <v>17595.608690000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.887669</v>
+        <v>4.8876689999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1524.240000</v>
+        <v>1524.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-615.192000</v>
+        <v>-615.19200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>17606.549476</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.890708</v>
+        <v>4.8907080000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1679.310000</v>
+        <v>1679.31</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1062.120000</v>
+        <v>-1062.1199999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>17616.894007</v>
+        <v>17616.894006999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.893582</v>
+        <v>4.8935820000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1975.330000</v>
+        <v>1975.33</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1836.340000</v>
+        <v>-1836.34</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>17627.881912</v>
+        <v>17627.881912000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.896634</v>
+        <v>4.8966339999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2367.160000</v>
+        <v>2367.16</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2731.370000</v>
+        <v>-2731.37</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>17638.747738</v>
+        <v>17638.747737999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.899652</v>
+        <v>4.8996519999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2852.770000</v>
+        <v>2852.77</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3702.550000</v>
+        <v>-3702.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>17651.170538</v>
+        <v>17651.170537999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.903103</v>
+        <v>4.9031029999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>4295.490000</v>
+        <v>4295.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6050.100000</v>
+        <v>-6050.1</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>17479.209053</v>
+        <v>17479.209052999999</v>
       </c>
       <c r="B17" s="1">
-        <v>4.855336</v>
+        <v>4.8553360000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.300000</v>
+        <v>1240.3</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.862000</v>
+        <v>-305.86200000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>17489.313055</v>
+        <v>17489.313054999999</v>
       </c>
       <c r="G17" s="1">
-        <v>4.858143</v>
+        <v>4.8581430000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1264.460000</v>
+        <v>1264.46</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.753000</v>
+        <v>-263.75299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>17499.824273</v>
+        <v>17499.824272999998</v>
       </c>
       <c r="L17" s="1">
-        <v>4.861062</v>
+        <v>4.8610620000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>1298.970000</v>
+        <v>1298.97</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.573000</v>
+        <v>-201.57300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>17510.059258</v>
+        <v>17510.059258000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.863905</v>
+        <v>4.8639049999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1310.450000</v>
+        <v>1310.45</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.389000</v>
+        <v>-183.38900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>17520.553611</v>
+        <v>17520.553610999999</v>
       </c>
       <c r="V17" s="1">
-        <v>4.866820</v>
+        <v>4.8668199999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>1323.110000</v>
+        <v>1323.11</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.008000</v>
+        <v>-170.00800000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>17530.742888</v>
+        <v>17530.742888000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.869651</v>
+        <v>4.8696510000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1340.130000</v>
+        <v>1340.13</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.392000</v>
+        <v>-168.392</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>17541.242204</v>
+        <v>17541.242203999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.872567</v>
+        <v>4.8725670000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1352.970000</v>
+        <v>1352.97</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.179000</v>
+        <v>-178.179</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>17552.080284</v>
@@ -4441,694 +4857,694 @@
         <v>4.875578</v>
       </c>
       <c r="AL17" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.506000</v>
+        <v>-208.506</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>17562.943662</v>
+        <v>17562.943662000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.878595</v>
+        <v>4.8785949999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1394.800000</v>
+        <v>1394.8</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.751000</v>
+        <v>-252.751</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>17573.988607</v>
+        <v>17573.988606999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.881664</v>
+        <v>4.8816639999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1419.300000</v>
+        <v>1419.3</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.130000</v>
+        <v>-313.13</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>17585.018146</v>
+        <v>17585.018145999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.884727</v>
+        <v>4.8847269999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1438.680000</v>
+        <v>1438.68</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.641000</v>
+        <v>-365.64100000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>17595.971301</v>
+        <v>17595.971301000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.887770</v>
+        <v>4.8877699999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1524.250000</v>
+        <v>1524.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-615.132000</v>
+        <v>-615.13199999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>17606.923429</v>
+        <v>17606.923428999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.890812</v>
+        <v>4.8908120000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1679.260000</v>
+        <v>1679.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1062.170000</v>
+        <v>-1062.17</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>17617.317094</v>
+        <v>17617.317094000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.893699</v>
+        <v>4.8936989999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1975.310000</v>
+        <v>1975.31</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1836.200000</v>
+        <v>-1836.2</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>17628.296707</v>
+        <v>17628.296707000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.896749</v>
+        <v>4.8967489999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.400000</v>
+        <v>2366.4</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2731.190000</v>
+        <v>-2731.19</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>17639.204553</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.899779</v>
+        <v>4.8997789999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.620000</v>
+        <v>2852.62</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3702.690000</v>
+        <v>-3702.69</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>17651.688857</v>
+        <v>17651.688857000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.903247</v>
+        <v>4.9032470000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>4287.400000</v>
+        <v>4287.3999999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6033.820000</v>
+        <v>-6033.82</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>17479.894028</v>
+        <v>17479.894027999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.855526</v>
+        <v>4.8555260000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1240.110000</v>
+        <v>1240.1099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.058000</v>
+        <v>-306.05799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>17490.002533</v>
+        <v>17490.002532999999</v>
       </c>
       <c r="G18" s="1">
-        <v>4.858334</v>
+        <v>4.8583340000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1264.550000</v>
+        <v>1264.55</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.587000</v>
+        <v>-263.58699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>17500.165522</v>
+        <v>17500.165521999999</v>
       </c>
       <c r="L18" s="1">
-        <v>4.861157</v>
+        <v>4.8611570000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>1298.850000</v>
+        <v>1298.8499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.953000</v>
+        <v>-200.953</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>17510.407412</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.864002</v>
+        <v>4.8640020000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1310.490000</v>
+        <v>1310.49</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.273000</v>
+        <v>-183.273</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>17520.895318</v>
+        <v>17520.895317999999</v>
       </c>
       <c r="V18" s="1">
-        <v>4.866915</v>
+        <v>4.8669149999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>1323.150000</v>
+        <v>1323.15</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.008000</v>
+        <v>-170.00800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>17531.398600</v>
+        <v>17531.3986</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.869833</v>
+        <v>4.8698329999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1340.110000</v>
+        <v>1340.11</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.212000</v>
+        <v>-168.21199999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>17541.888490</v>
+        <v>17541.888490000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.872747</v>
+        <v>4.8727470000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>1352.770000</v>
+        <v>1352.77</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.144000</v>
+        <v>-178.14400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>17552.466171</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.875685</v>
+        <v>4.8756849999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1373.250000</v>
+        <v>1373.25</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.464000</v>
+        <v>-208.464</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>17563.327069</v>
+        <v>17563.327068999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.878702</v>
+        <v>4.8787019999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1394.780000</v>
+        <v>1394.78</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.771000</v>
+        <v>-252.77099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>17574.353136</v>
+        <v>17574.353136000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.881765</v>
+        <v>4.8817649999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1419.330000</v>
+        <v>1419.33</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.168000</v>
+        <v>-313.16800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>17585.398544</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.884833</v>
+        <v>4.8848330000000004</v>
       </c>
       <c r="BA18" s="1">
-        <v>1438.630000</v>
+        <v>1438.63</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.543000</v>
+        <v>-365.54300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>17596.380993</v>
+        <v>17596.380992999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.887884</v>
+        <v>4.8878839999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1524.200000</v>
+        <v>1524.2</v>
       </c>
       <c r="BG18" s="1">
-        <v>-615.144000</v>
+        <v>-615.14400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>17607.329651</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.890925</v>
+        <v>4.8909250000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1679.340000</v>
+        <v>1679.34</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1062.090000</v>
+        <v>-1062.0899999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>17617.711413</v>
+        <v>17617.711413000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.893809</v>
+        <v>4.8938090000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1975.350000</v>
+        <v>1975.35</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1836.340000</v>
+        <v>-1836.34</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>17628.725576</v>
+        <v>17628.725576000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.896868</v>
+        <v>4.8968680000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.220000</v>
+        <v>2366.2199999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2731.760000</v>
+        <v>-2731.76</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>17639.655912</v>
+        <v>17639.655911999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.899904</v>
+        <v>4.8999040000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.190000</v>
+        <v>2852.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3703.070000</v>
+        <v>-3703.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>17652.207672</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.903391</v>
+        <v>4.9033910000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4273.250000</v>
+        <v>4273.25</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6045.610000</v>
+        <v>-6045.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>17480.236267</v>
       </c>
       <c r="B19" s="1">
-        <v>4.855621</v>
+        <v>4.8556210000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1240.380000</v>
+        <v>1240.3800000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-305.886000</v>
+        <v>-305.88600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>17490.349199</v>
       </c>
       <c r="G19" s="1">
-        <v>4.858430</v>
+        <v>4.8584300000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1264.890000</v>
+        <v>1264.8900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.979000</v>
+        <v>-263.97899999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>17500.514706</v>
+        <v>17500.514706000002</v>
       </c>
       <c r="L19" s="1">
-        <v>4.861254</v>
+        <v>4.8612539999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>1299.450000</v>
+        <v>1299.45</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.000000</v>
+        <v>-201</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>17511.077047</v>
+        <v>17511.077046999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.864188</v>
+        <v>4.8641880000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>1310.520000</v>
+        <v>1310.52</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.227000</v>
+        <v>-183.227</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>17521.548586</v>
+        <v>17521.548586000001</v>
       </c>
       <c r="V19" s="1">
-        <v>4.867097</v>
+        <v>4.8670970000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1323.020000</v>
+        <v>1323.02</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.050000</v>
+        <v>-170.05</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>17531.788459</v>
+        <v>17531.788458999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.869941</v>
+        <v>4.8699409999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1340.000000</v>
+        <v>1340</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.246000</v>
+        <v>-168.24600000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>17542.273920</v>
+        <v>17542.27392</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.872854</v>
+        <v>4.8728540000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1352.760000</v>
+        <v>1352.76</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.136000</v>
+        <v>-178.136</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>17552.811918</v>
+        <v>17552.811917999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.875781</v>
+        <v>4.8757809999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.497000</v>
+        <v>-208.49700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>17563.685727</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.878802</v>
+        <v>4.8788020000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1394.790000</v>
+        <v>1394.79</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.715000</v>
+        <v>-252.715</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>17574.717199</v>
+        <v>17574.717198999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.881866</v>
+        <v>4.8818659999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>1419.300000</v>
+        <v>1419.3</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.134000</v>
+        <v>-313.13400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>17585.801296</v>
+        <v>17585.801296000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.884945</v>
+        <v>4.8849450000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1438.660000</v>
+        <v>1438.66</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.575000</v>
+        <v>-365.57499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>17596.692947</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.887970</v>
+        <v>4.8879700000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1524.250000</v>
+        <v>1524.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-615.142000</v>
+        <v>-615.14200000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>17607.677843</v>
+        <v>17607.677843000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.891022</v>
+        <v>4.8910220000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1679.340000</v>
+        <v>1679.34</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1062.130000</v>
+        <v>-1062.1300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>17618.133013</v>
+        <v>17618.133012999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.893926</v>
+        <v>4.8939260000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1975.410000</v>
+        <v>1975.41</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1836.180000</v>
+        <v>-1836.18</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>17629.152631</v>
+        <v>17629.152631000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.896987</v>
+        <v>4.8969870000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2365.740000</v>
+        <v>2365.7399999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2731.400000</v>
+        <v>-2731.4</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>17640.076024</v>
+        <v>17640.076024000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.900021</v>
+        <v>4.9000209999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.290000</v>
+        <v>2852.29</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3703.330000</v>
+        <v>-3703.33</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>17652.724008</v>
+        <v>17652.724008000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.903534</v>
+        <v>4.9035339999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>4279.060000</v>
+        <v>4279.0600000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6036.860000</v>
+        <v>-6036.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>17480.577515</v>
+        <v>17480.577515000001</v>
       </c>
       <c r="B20" s="1">
-        <v>4.855716</v>
+        <v>4.8557160000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1240.050000</v>
+        <v>1240.05</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.808000</v>
+        <v>-305.80799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>17490.696398</v>
       </c>
       <c r="G20" s="1">
-        <v>4.858527</v>
+        <v>4.8585269999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1265.220000</v>
+        <v>1265.22</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.237000</v>
+        <v>-264.23700000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>17501.163503</v>
@@ -5137,1585 +5553,1585 @@
         <v>4.861434</v>
       </c>
       <c r="M20" s="1">
-        <v>1299.230000</v>
+        <v>1299.23</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.139000</v>
+        <v>-201.13900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>17511.462435</v>
+        <v>17511.462435000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.864295</v>
+        <v>4.8642950000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.325000</v>
+        <v>-183.32499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>17521.926004</v>
+        <v>17521.926004000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.867202</v>
+        <v>4.8672019999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1323.210000</v>
+        <v>1323.21</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.010000</v>
+        <v>-170.01</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>17532.138468</v>
+        <v>17532.138468000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.870038</v>
+        <v>4.8700380000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1339.810000</v>
+        <v>1339.81</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.285000</v>
+        <v>-168.285</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>17542.618600</v>
+        <v>17542.618600000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.872950</v>
+        <v>4.8729500000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1352.830000</v>
+        <v>1352.83</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.215000</v>
+        <v>-178.215</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>17553.163547</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.875879</v>
+        <v>4.8758790000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.501000</v>
+        <v>-208.501</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>17564.095905</v>
+        <v>17564.095904999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.878916</v>
+        <v>4.8789160000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1394.800000</v>
+        <v>1394.8</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.746000</v>
+        <v>-252.74600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>17575.149711</v>
+        <v>17575.149710999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.881986</v>
+        <v>4.8819860000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1419.280000</v>
+        <v>1419.28</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.159000</v>
+        <v>-313.15899999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>17586.115263</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.885032</v>
+        <v>4.8850319999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1438.660000</v>
+        <v>1438.66</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.593000</v>
+        <v>-365.59300000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>17597.054064</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.888071</v>
+        <v>4.8880710000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1524.210000</v>
+        <v>1524.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-615.144000</v>
+        <v>-615.14400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>17608.074642</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.891132</v>
+        <v>4.8911319999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1679.300000</v>
+        <v>1679.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1062.160000</v>
+        <v>-1062.1600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>17618.529813</v>
+        <v>17618.529813000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.894036</v>
+        <v>4.8940359999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1975.390000</v>
+        <v>1975.39</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1836.130000</v>
+        <v>-1836.13</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>17629.578229</v>
+        <v>17629.578228999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.897105</v>
+        <v>4.8971049999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.090000</v>
+        <v>2365.09</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2731.670000</v>
+        <v>-2731.67</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>17640.499111</v>
+        <v>17640.499111000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.900139</v>
+        <v>4.9001390000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2853.120000</v>
+        <v>2853.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3702.570000</v>
+        <v>-3702.57</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>17653.278534</v>
+        <v>17653.278534000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.903688</v>
+        <v>4.9036879999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4287.780000</v>
+        <v>4287.78</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6033.460000</v>
+        <v>-6033.46</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>17481.227274</v>
+        <v>17481.227274000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.855896</v>
+        <v>4.8558960000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.749000</v>
+        <v>-305.74900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>17491.347644</v>
+        <v>17491.347644000001</v>
       </c>
       <c r="G21" s="1">
         <v>4.858708</v>
       </c>
       <c r="H21" s="1">
-        <v>1264.880000</v>
+        <v>1264.8800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.767000</v>
+        <v>-263.767</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>17501.550887</v>
+        <v>17501.550887000001</v>
       </c>
       <c r="L21" s="1">
         <v>4.861542</v>
       </c>
       <c r="M21" s="1">
-        <v>1298.830000</v>
+        <v>1298.83</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.375000</v>
+        <v>-201.375</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>17511.828449</v>
+        <v>17511.828449000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.864397</v>
+        <v>4.8643970000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.374000</v>
+        <v>-183.374</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>17522.270723</v>
+        <v>17522.270723000001</v>
       </c>
       <c r="V21" s="1">
-        <v>4.867297</v>
+        <v>4.8672969999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1323.020000</v>
+        <v>1323.02</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.081000</v>
+        <v>-170.08099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>17532.484871</v>
+        <v>17532.484871000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.870135</v>
+        <v>4.8701350000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1340.000000</v>
+        <v>1340</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.287000</v>
+        <v>-168.28700000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>17542.969272</v>
+        <v>17542.969271999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.873047</v>
+        <v>4.8730469999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1352.750000</v>
+        <v>1352.75</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.147000</v>
+        <v>-178.14699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>17553.578731</v>
+        <v>17553.578731000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.875994</v>
+        <v>4.8759940000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1373.240000</v>
+        <v>1373.24</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.480000</v>
+        <v>-208.48</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>17564.404909</v>
+        <v>17564.404909000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.879001</v>
+        <v>4.8790009999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1394.790000</v>
+        <v>1394.79</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.728000</v>
+        <v>-252.72800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>17575.449293</v>
+        <v>17575.449293000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.882069</v>
+        <v>4.8820690000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1419.310000</v>
+        <v>1419.31</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.157000</v>
+        <v>-313.15699999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>17586.473870</v>
+        <v>17586.473870000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.885132</v>
+        <v>4.8851319999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1438.680000</v>
+        <v>1438.68</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.585000</v>
+        <v>-365.58499999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>17597.413136</v>
+        <v>17597.413135999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.888170</v>
+        <v>4.8881699999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1524.230000</v>
+        <v>1524.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-615.137000</v>
+        <v>-615.13699999999994</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>17608.451138</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.891236</v>
+        <v>4.8912360000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1679.220000</v>
+        <v>1679.22</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1062.090000</v>
+        <v>-1062.0899999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>17618.950419</v>
+        <v>17618.950419000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.894153</v>
+        <v>4.8941530000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1975.290000</v>
+        <v>1975.29</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1836.140000</v>
+        <v>-1836.14</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>17629.993350</v>
+        <v>17629.993350000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.897220</v>
+        <v>4.8972199999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2364.880000</v>
+        <v>2364.88</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2731.300000</v>
+        <v>-2731.3</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>17640.923688</v>
+        <v>17640.923687999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.900257</v>
+        <v>4.9002569999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.380000</v>
+        <v>2852.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3702.780000</v>
+        <v>-3702.78</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>17653.803797</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.903834</v>
+        <v>4.9038339999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.750000</v>
+        <v>4272.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6044.780000</v>
+        <v>-6044.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>17481.600296</v>
+        <v>17481.600296000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.856000</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1239.580000</v>
+        <v>1239.58</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.288000</v>
+        <v>-306.28800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>17491.735020</v>
+        <v>17491.73502</v>
       </c>
       <c r="G22" s="1">
-        <v>4.858815</v>
+        <v>4.8588149999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1265.160000</v>
+        <v>1265.1600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.213000</v>
+        <v>-263.21300000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>17501.897088</v>
+        <v>17501.897088000002</v>
       </c>
       <c r="L22" s="1">
-        <v>4.861638</v>
+        <v>4.8616380000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1299.090000</v>
+        <v>1299.0899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.383000</v>
+        <v>-201.38300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>17512.164738</v>
+        <v>17512.164737999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.864490</v>
+        <v>4.86449</v>
       </c>
       <c r="R22" s="1">
-        <v>1310.520000</v>
+        <v>1310.52</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.331000</v>
+        <v>-183.33099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>17522.617427</v>
+        <v>17522.617427000001</v>
       </c>
       <c r="V22" s="1">
         <v>4.867394</v>
       </c>
       <c r="W22" s="1">
-        <v>1323.250000</v>
+        <v>1323.25</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.070000</v>
+        <v>-170.07</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>17532.908949</v>
+        <v>17532.908949000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.870252</v>
+        <v>4.8702519999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1340.030000</v>
+        <v>1340.03</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.052000</v>
+        <v>-168.05199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>17543.390414</v>
+        <v>17543.390414000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.873164</v>
+        <v>4.8731640000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1352.890000</v>
+        <v>1352.89</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.197000</v>
+        <v>-178.197</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>17553.867410</v>
+        <v>17553.867409999999</v>
       </c>
       <c r="AK22" s="1">
         <v>4.876074</v>
       </c>
       <c r="AL22" s="1">
-        <v>1373.240000</v>
+        <v>1373.24</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.472000</v>
+        <v>-208.47200000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>17564.767948</v>
+        <v>17564.767948000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.879102</v>
+        <v>4.8791019999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1394.750000</v>
+        <v>1394.75</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.718000</v>
+        <v>-252.71799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>17575.812365</v>
+        <v>17575.812365000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.882170</v>
+        <v>4.8821700000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1419.340000</v>
+        <v>1419.34</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>17586.832974</v>
+        <v>17586.832974000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.885231</v>
+        <v>4.8852310000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1438.650000</v>
+        <v>1438.65</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.569000</v>
+        <v>-365.56900000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>17598.138287</v>
+        <v>17598.138287000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.888372</v>
+        <v>4.8883720000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1524.240000</v>
+        <v>1524.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-615.112000</v>
+        <v>-615.11199999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17609.203042</v>
+        <v>17609.203042000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>4.891445</v>
       </c>
       <c r="BK22" s="1">
-        <v>1679.220000</v>
+        <v>1679.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1062.210000</v>
+        <v>-1062.21</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>17619.347371</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.894263</v>
+        <v>4.8942629999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1975.400000</v>
+        <v>1975.4</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1836.180000</v>
+        <v>-1836.18</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>17630.423876</v>
+        <v>17630.423876000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.897340</v>
+        <v>4.8973399999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2364.520000</v>
+        <v>2364.52</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2731.130000</v>
+        <v>-2731.13</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>17641.340823</v>
+        <v>17641.340822999999</v>
       </c>
       <c r="BY22" s="1">
         <v>4.900372</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.320000</v>
+        <v>2852.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3703.340000</v>
+        <v>-3703.34</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>17654.633605</v>
+        <v>17654.633604999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.904065</v>
+        <v>4.9040650000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4288.680000</v>
+        <v>4288.68</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6033.520000</v>
+        <v>-6033.52</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>17481.944984</v>
+        <v>17481.944984000002</v>
       </c>
       <c r="B23" s="1">
         <v>4.856096</v>
       </c>
       <c r="C23" s="1">
-        <v>1240.280000</v>
+        <v>1240.28</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.112000</v>
+        <v>-306.11200000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>17492.078251</v>
+        <v>17492.078250999999</v>
       </c>
       <c r="G23" s="1">
         <v>4.858911</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.220000</v>
+        <v>1265.22</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.890000</v>
+        <v>-263.89</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>17502.244254</v>
+        <v>17502.244254000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.861735</v>
+        <v>4.8617350000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>1299.170000</v>
+        <v>1299.17</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.084000</v>
+        <v>-201.084</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>17512.591297</v>
+        <v>17512.591296999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.864609</v>
+        <v>4.8646089999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.341000</v>
+        <v>-183.34100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>17523.029139</v>
+        <v>17523.029138999998</v>
       </c>
       <c r="V23" s="1">
-        <v>4.867508</v>
+        <v>4.8675079999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1323.140000</v>
+        <v>1323.14</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.966000</v>
+        <v>-169.96600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>17533.188661</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.870330</v>
+        <v>4.87033</v>
       </c>
       <c r="AB23" s="1">
-        <v>1339.900000</v>
+        <v>1339.9</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.236000</v>
+        <v>-168.23599999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>17543.667143</v>
+        <v>17543.667142999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.873241</v>
+        <v>4.8732410000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1352.810000</v>
+        <v>1352.81</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.217000</v>
+        <v>-178.21700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>17554.220026</v>
+        <v>17554.220025999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.876172</v>
+        <v>4.8761720000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>1373.220000</v>
+        <v>1373.22</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.511000</v>
+        <v>-208.511</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>17565.127547</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.879202</v>
+        <v>4.8792020000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1394.720000</v>
+        <v>1394.72</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.762000</v>
+        <v>-252.762</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>17576.191347</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.882275</v>
+        <v>4.8822749999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1419.350000</v>
+        <v>1419.35</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.115000</v>
+        <v>-313.11500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>17587.552173</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.885431</v>
+        <v>4.8854309999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.581000</v>
+        <v>-365.58100000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>17598.528671</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.888480</v>
+        <v>4.8884800000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1524.240000</v>
+        <v>1524.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-615.169000</v>
+        <v>-615.16899999999998</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>17609.576070</v>
+        <v>17609.576069999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.891549</v>
+        <v>4.8915490000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1679.360000</v>
+        <v>1679.36</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1062.160000</v>
+        <v>-1062.1600000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>17619.769347</v>
+        <v>17619.769347000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.894380</v>
+        <v>4.89438</v>
       </c>
       <c r="BP23" s="1">
-        <v>1975.270000</v>
+        <v>1975.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1835.940000</v>
+        <v>-1835.94</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>17631.144595</v>
+        <v>17631.144595000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.897540</v>
+        <v>4.8975400000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2364.220000</v>
+        <v>2364.2199999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2730.940000</v>
+        <v>-2730.94</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>17642.095237</v>
+        <v>17642.095237000001</v>
       </c>
       <c r="BY23" s="1">
         <v>4.900582</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.400000</v>
+        <v>2852.4</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3703.680000</v>
+        <v>-3703.68</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>17654.864281</v>
+        <v>17654.864280999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.904129</v>
+        <v>4.9041290000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4292.400000</v>
+        <v>4292.3999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6035.890000</v>
+        <v>-6035.89</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>17482.287747</v>
+        <v>17482.287746999998</v>
       </c>
       <c r="B24" s="1">
-        <v>4.856191</v>
+        <v>4.8561909999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1240.290000</v>
+        <v>1240.29</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.038000</v>
+        <v>-306.03800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>17492.423467</v>
+        <v>17492.423467000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.859007</v>
+        <v>4.8590070000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1264.470000</v>
+        <v>1264.47</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.601000</v>
+        <v>-263.601</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>17502.659901</v>
+        <v>17502.659900999999</v>
       </c>
       <c r="L24" s="1">
-        <v>4.861850</v>
+        <v>4.8618499999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>1299.180000</v>
+        <v>1299.18</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.478000</v>
+        <v>-201.47800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>17512.868064</v>
+        <v>17512.868063999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.864686</v>
+        <v>4.8646859999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1310.450000</v>
+        <v>1310.45</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.220000</v>
+        <v>-183.22</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>17523.321746</v>
+        <v>17523.321746000001</v>
       </c>
       <c r="V24" s="1">
-        <v>4.867589</v>
+        <v>4.8675889999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>1323.170000</v>
+        <v>1323.17</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.980000</v>
+        <v>-169.98</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>17533.536885</v>
+        <v>17533.536885000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.870427</v>
+        <v>4.8704270000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1339.840000</v>
+        <v>1339.84</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.285000</v>
+        <v>-168.285</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>17544.012891</v>
+        <v>17544.012890999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.873337</v>
+        <v>4.8733370000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>1352.600000</v>
+        <v>1352.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.324000</v>
+        <v>-178.32400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>17554.567752</v>
+        <v>17554.567751999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.876269</v>
+        <v>4.8762689999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>1373.210000</v>
+        <v>1373.21</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.467000</v>
+        <v>-208.46700000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>17565.846779</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.879402</v>
+        <v>4.8794019999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1394.750000</v>
+        <v>1394.75</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.768000</v>
+        <v>-252.768</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>17576.906540</v>
+        <v>17576.90654</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.882474</v>
+        <v>4.8824740000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1419.290000</v>
+        <v>1419.29</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.167000</v>
+        <v>-313.16699999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>17587.908831</v>
+        <v>17587.908831000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.885530</v>
+        <v>4.8855300000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1438.670000</v>
+        <v>1438.67</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.591000</v>
+        <v>-365.59100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>17598.889230</v>
+        <v>17598.889230000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.888580</v>
+        <v>4.8885800000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1524.240000</v>
+        <v>1524.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-615.136000</v>
+        <v>-615.13599999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>17609.952000</v>
+        <v>17609.952000000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.891653</v>
+        <v>4.8916529999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1679.330000</v>
+        <v>1679.33</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.960000</v>
+        <v>-1061.96</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>17620.470658</v>
+        <v>17620.470657999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.894575</v>
+        <v>4.8945749999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1975.360000</v>
+        <v>1975.36</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1836.020000</v>
+        <v>-1836.02</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>17631.267603</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.897574</v>
+        <v>4.8975739999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>2363.600000</v>
+        <v>2363.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2730.920000</v>
+        <v>-2730.92</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>17642.237589</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.900622</v>
+        <v>4.9006220000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.760000</v>
+        <v>2852.76</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3702.340000</v>
+        <v>-3702.34</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>17655.383093</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.904273</v>
+        <v>4.9042729999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4275.190000</v>
+        <v>4275.1899999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6037.260000</v>
+        <v>-6037.26</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>17482.707832</v>
       </c>
       <c r="B25" s="1">
-        <v>4.856308</v>
+        <v>4.8563080000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.090000</v>
+        <v>1240.0899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.016000</v>
+        <v>-306.01600000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>17492.850028</v>
+        <v>17492.850028000001</v>
       </c>
       <c r="G25" s="1">
-        <v>4.859125</v>
+        <v>4.8591249999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.763000</v>
+        <v>-263.76299999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>17502.956545</v>
+        <v>17502.956545000001</v>
       </c>
       <c r="L25" s="1">
-        <v>4.861932</v>
+        <v>4.8619320000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1299.370000</v>
+        <v>1299.3699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.148000</v>
+        <v>-201.148</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>17513.218737</v>
+        <v>17513.218736999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.864783</v>
+        <v>4.8647830000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.298000</v>
+        <v>-183.298</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>17523.665969</v>
+        <v>17523.665969000001</v>
       </c>
       <c r="V25" s="1">
-        <v>4.867685</v>
+        <v>4.8676849999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1323.120000</v>
+        <v>1323.12</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.962000</v>
+        <v>-169.96199999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>17533.884580</v>
+        <v>17533.884580000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.870523</v>
+        <v>4.8705230000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>1340.190000</v>
+        <v>1340.19</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.968000</v>
+        <v>-167.96799999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>17544.699815</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.873528</v>
+        <v>4.8735280000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1352.660000</v>
+        <v>1352.66</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.325000</v>
+        <v>-178.32499999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>17555.265097</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.876463</v>
+        <v>4.8764630000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1373.230000</v>
+        <v>1373.23</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.458000</v>
+        <v>-208.458</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>17566.207369</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.879502</v>
+        <v>4.8795019999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1394.760000</v>
+        <v>1394.76</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.744000</v>
+        <v>-252.744</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>17577.270604</v>
+        <v>17577.270604000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.882575</v>
+        <v>4.8825750000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1419.300000</v>
+        <v>1419.3</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.156000</v>
+        <v>-313.15600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>17588.271868</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.885631</v>
+        <v>4.8856310000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1438.660000</v>
+        <v>1438.66</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.577000</v>
+        <v>-365.577</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>17599.552877</v>
+        <v>17599.552876999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.888765</v>
+        <v>4.8887650000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1524.230000</v>
+        <v>1524.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-615.172000</v>
+        <v>-615.17200000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>17610.414767</v>
+        <v>17610.414766999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.891782</v>
+        <v>4.8917820000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1679.340000</v>
+        <v>1679.34</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1062.120000</v>
+        <v>-1062.1199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>17620.585731</v>
+        <v>17620.585730999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.894607</v>
+        <v>4.8946069999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1975.230000</v>
+        <v>1975.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1836.030000</v>
+        <v>-1836.03</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>17631.707064</v>
+        <v>17631.707063999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.897696</v>
+        <v>4.8976959999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.610000</v>
+        <v>2363.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2730.600000</v>
+        <v>-2730.6</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>17642.661172</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.900739</v>
+        <v>4.9007389999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2853.060000</v>
+        <v>2853.06</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3703.020000</v>
+        <v>-3703.02</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>17655.899890</v>
+        <v>17655.899890000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.904417</v>
+        <v>4.9044169999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>4282.410000</v>
+        <v>4282.41</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6034.050000</v>
+        <v>-6034.05</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>17482.989063</v>
+        <v>17482.989063000001</v>
       </c>
       <c r="B26" s="1">
-        <v>4.856386</v>
+        <v>4.8563859999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.020000</v>
+        <v>1240.02</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.211000</v>
+        <v>-306.21100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>17493.115387</v>
+        <v>17493.115387000002</v>
       </c>
       <c r="G26" s="1">
-        <v>4.859199</v>
+        <v>4.8591990000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.607000</v>
+        <v>-263.60700000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>17503.303709</v>
       </c>
       <c r="L26" s="1">
-        <v>4.862029</v>
+        <v>4.8620289999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1298.760000</v>
+        <v>1298.76</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.634000</v>
+        <v>-201.63399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>17513.568449</v>
+        <v>17513.568448999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.864880</v>
+        <v>4.8648800000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.367000</v>
+        <v>-183.36699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>17524.007713</v>
+        <v>17524.007712999999</v>
       </c>
       <c r="V26" s="1">
-        <v>4.867780</v>
+        <v>4.8677799999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1323.240000</v>
+        <v>1323.24</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.909000</v>
+        <v>-169.90899999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>17534.579972</v>
@@ -6724,180 +7140,181 @@
         <v>4.870717</v>
       </c>
       <c r="AB26" s="1">
-        <v>1340.010000</v>
+        <v>1340.01</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.208000</v>
+        <v>-168.208</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>17545.043046</v>
+        <v>17545.043045999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.873623</v>
+        <v>4.8736230000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>1352.830000</v>
+        <v>1352.83</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.305000</v>
+        <v>-178.30500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>17555.613287</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.876559</v>
+        <v>4.8765590000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>1373.190000</v>
+        <v>1373.19</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.460000</v>
+        <v>-208.46</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>17566.569914</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.879603</v>
+        <v>4.8796030000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1394.760000</v>
+        <v>1394.76</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.731000</v>
+        <v>-252.73099999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>17577.939247</v>
+        <v>17577.939246999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.882761</v>
+        <v>4.8827610000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>1419.280000</v>
+        <v>1419.28</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.202000</v>
+        <v>-313.202</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>17588.951883</v>
+        <v>17588.951883000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.885820</v>
+        <v>4.8858199999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1438.660000</v>
+        <v>1438.66</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.557000</v>
+        <v>-365.55700000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>17599.975469</v>
+        <v>17599.975469000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.888882</v>
+        <v>4.8888819999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1524.260000</v>
+        <v>1524.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-615.126000</v>
+        <v>-615.12599999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>17610.699967</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.891861</v>
+        <v>4.8918609999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1679.230000</v>
+        <v>1679.23</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1062.060000</v>
+        <v>-1062.06</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>17621.008849</v>
+        <v>17621.008849000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.894725</v>
+        <v>4.8947250000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1975.220000</v>
+        <v>1975.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1836.070000</v>
+        <v>-1836.07</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>17632.131602</v>
+        <v>17632.131602000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.897814</v>
+        <v>4.8978140000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.190000</v>
+        <v>2363.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2730.090000</v>
+        <v>-2730.09</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>17643.109061</v>
+        <v>17643.109060999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.900864</v>
+        <v>4.9008640000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.160000</v>
+        <v>2852.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3703.020000</v>
+        <v>-3703.02</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>17656.453426</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.904570</v>
+        <v>4.9045699999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>4290.760000</v>
+        <v>4290.76</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6035.330000</v>
+        <v>-6035.33</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>